--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H2">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I2">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J2">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>1372.289305848859</v>
+        <v>625.7812396674025</v>
       </c>
       <c r="R2">
-        <v>5489.157223395436</v>
+        <v>2503.12495866961</v>
       </c>
       <c r="S2">
-        <v>0.02321911763049504</v>
+        <v>0.01222724706984766</v>
       </c>
       <c r="T2">
-        <v>0.01287323584064696</v>
+        <v>0.006832914086596265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H3">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I3">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J3">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>990.2887363217399</v>
+        <v>368.7341411796399</v>
       </c>
       <c r="R3">
-        <v>5941.73241793044</v>
+        <v>2212.40484707784</v>
       </c>
       <c r="S3">
-        <v>0.01675567284449948</v>
+        <v>0.007204759685170222</v>
       </c>
       <c r="T3">
-        <v>0.0139346204900143</v>
+        <v>0.006039319847973822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H4">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I4">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J4">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>704.8500697644974</v>
+        <v>240.9691562852717</v>
       </c>
       <c r="R4">
-        <v>4229.100418586985</v>
+        <v>1445.81493771163</v>
       </c>
       <c r="S4">
-        <v>0.01192605423067184</v>
+        <v>0.004708337711879526</v>
       </c>
       <c r="T4">
-        <v>0.00991813585703283</v>
+        <v>0.003946718369086845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H5">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I5">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J5">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>1166.592534861754</v>
+        <v>534.1412476208325</v>
       </c>
       <c r="R5">
-        <v>4666.370139447015</v>
+        <v>2136.56499048333</v>
       </c>
       <c r="S5">
-        <v>0.01973873087720162</v>
+        <v>0.01043667753339459</v>
       </c>
       <c r="T5">
-        <v>0.01094362593019256</v>
+        <v>0.005832295734912565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H6">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I6">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J6">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1015.04468564547</v>
+        <v>185.8266210899116</v>
       </c>
       <c r="R6">
-        <v>6090.268113872819</v>
+        <v>1114.95972653947</v>
       </c>
       <c r="S6">
-        <v>0.0171745431927215</v>
+        <v>0.003630898250367718</v>
       </c>
       <c r="T6">
-        <v>0.01428296814463624</v>
+        <v>0.003043565202397323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H7">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I7">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J7">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>664.0237830468626</v>
+        <v>267.8237646704033</v>
       </c>
       <c r="R7">
-        <v>3984.142698281176</v>
+        <v>1606.94258802242</v>
       </c>
       <c r="S7">
-        <v>0.011235273977796</v>
+        <v>0.005233054515252421</v>
       </c>
       <c r="T7">
-        <v>0.009343658141028674</v>
+        <v>0.004386557134521035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
         <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J8">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>10442.18895674641</v>
+        <v>12788.42016188852</v>
       </c>
       <c r="R8">
-        <v>62653.13374047848</v>
+        <v>76730.52097133112</v>
       </c>
       <c r="S8">
-        <v>0.1766817045597928</v>
+        <v>0.2498751369336991</v>
       </c>
       <c r="T8">
-        <v>0.1469348633992792</v>
+        <v>0.2094554072504378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
         <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J9">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>7535.42424497196</v>
+        <v>7535.424244971963</v>
       </c>
       <c r="R9">
-        <v>67818.81820474764</v>
+        <v>67818.81820474767</v>
       </c>
       <c r="S9">
-        <v>0.1274992825448416</v>
+        <v>0.1472359479302428</v>
       </c>
       <c r="T9">
-        <v>0.1590494871348639</v>
+        <v>0.1851286555401633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
         <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J10">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>5363.429987603073</v>
+        <v>4924.428252706467</v>
       </c>
       <c r="R10">
-        <v>48270.86988842766</v>
+        <v>44319.85427435821</v>
       </c>
       <c r="S10">
-        <v>0.09074916728877885</v>
+        <v>0.09621924900718096</v>
       </c>
       <c r="T10">
-        <v>0.1132054096862854</v>
+        <v>0.120982276788974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
         <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J11">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>8876.976328997122</v>
+        <v>10915.6719111635</v>
       </c>
       <c r="R11">
-        <v>53261.85797398273</v>
+        <v>65494.03146698102</v>
       </c>
       <c r="S11">
-        <v>0.1501983267723616</v>
+        <v>0.2132831873677291</v>
       </c>
       <c r="T11">
-        <v>0.1249103334274688</v>
+        <v>0.178782560834104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
         <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J12">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>7723.800194227153</v>
+        <v>3797.539390961762</v>
       </c>
       <c r="R12">
-        <v>69514.20174804438</v>
+        <v>34177.85451865586</v>
       </c>
       <c r="S12">
-        <v>0.13068660121436</v>
+        <v>0.07420077408432262</v>
       </c>
       <c r="T12">
-        <v>0.1630255204866123</v>
+        <v>0.09329711758149022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
         <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J13">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>5052.769692801648</v>
+        <v>5473.22708773477</v>
       </c>
       <c r="R13">
-        <v>45474.92723521483</v>
+        <v>49259.04378961293</v>
       </c>
       <c r="S13">
-        <v>0.08549279904530803</v>
+        <v>0.106942323657201</v>
       </c>
       <c r="T13">
-        <v>0.1066483322139318</v>
+        <v>0.1344650465956759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H14">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I14">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J14">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>1280.649225511778</v>
+        <v>984.2857409725533</v>
       </c>
       <c r="R14">
-        <v>5122.596902047113</v>
+        <v>3937.142963890213</v>
       </c>
       <c r="S14">
-        <v>0.02166856863477981</v>
+        <v>0.01923212806538598</v>
       </c>
       <c r="T14">
-        <v>0.01201357427977416</v>
+        <v>0.01074742973806912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H15">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I15">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J15">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>924.1582644404517</v>
+        <v>579.978648074812</v>
       </c>
       <c r="R15">
-        <v>5544.949586642711</v>
+        <v>3479.871888448872</v>
       </c>
       <c r="S15">
-        <v>0.01563674609995128</v>
+        <v>0.01133230236978029</v>
       </c>
       <c r="T15">
-        <v>0.01300408074469307</v>
+        <v>0.009499192424963984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H16">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I16">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J16">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>657.7809009358004</v>
+        <v>379.0182407383132</v>
       </c>
       <c r="R16">
-        <v>3946.685405614803</v>
+        <v>2274.109444429879</v>
       </c>
       <c r="S16">
-        <v>0.01112964449174502</v>
+        <v>0.007405702471920495</v>
       </c>
       <c r="T16">
-        <v>0.009255812859353887</v>
+        <v>0.006207758187815469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H17">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I17">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J17">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>1088.688675114599</v>
+        <v>840.1460132903723</v>
       </c>
       <c r="R17">
-        <v>4354.754700458397</v>
+        <v>3360.584053161489</v>
       </c>
       <c r="S17">
-        <v>0.01842059855945404</v>
+        <v>0.01641575718170896</v>
       </c>
       <c r="T17">
-        <v>0.01021282175125781</v>
+        <v>0.009173566040523334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H18">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I18">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J18">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>947.2610367153059</v>
+        <v>292.2850380256251</v>
       </c>
       <c r="R18">
-        <v>5683.566220291835</v>
+        <v>1753.710228153751</v>
       </c>
       <c r="S18">
-        <v>0.01602764471349732</v>
+        <v>0.005711007534611621</v>
       </c>
       <c r="T18">
-        <v>0.0133291660981962</v>
+        <v>0.004787196612081465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H19">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I19">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J19">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>619.6809520091275</v>
+        <v>421.2576151991643</v>
       </c>
       <c r="R19">
-        <v>3718.085712054765</v>
+        <v>2527.545691194985</v>
       </c>
       <c r="S19">
-        <v>0.01048499383967494</v>
+        <v>0.008231024860752638</v>
       </c>
       <c r="T19">
-        <v>0.008719698179352493</v>
+        <v>0.00689957666638466</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H20">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I20">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J20">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>617.6655730091315</v>
+        <v>6.835091595264167</v>
       </c>
       <c r="R20">
-        <v>3705.993438054789</v>
+        <v>41.010549571585</v>
       </c>
       <c r="S20">
-        <v>0.01045089365258503</v>
+        <v>0.0001335520280613609</v>
       </c>
       <c r="T20">
-        <v>0.008691339236674018</v>
+        <v>0.0001119486907340307</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H21">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I21">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J21">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>445.7276298501039</v>
+        <v>4.027496303026666</v>
       </c>
       <c r="R21">
-        <v>4011.548668650936</v>
+        <v>36.24746672724</v>
       </c>
       <c r="S21">
-        <v>0.007541705837494282</v>
+        <v>7.869394166590628E-05</v>
       </c>
       <c r="T21">
-        <v>0.009407930943874987</v>
+        <v>9.894664872648837E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H22">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I22">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J22">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>317.252069495151</v>
+        <v>2.631984071172778</v>
       </c>
       <c r="R22">
-        <v>2855.268625456359</v>
+        <v>23.687856640555</v>
       </c>
       <c r="S22">
-        <v>0.005367900987590447</v>
+        <v>5.142678859985877E-05</v>
       </c>
       <c r="T22">
-        <v>0.006696209437623475</v>
+        <v>6.466200928560389E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H23">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I23">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J23">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>525.0817327238735</v>
+        <v>5.8341543671675</v>
       </c>
       <c r="R23">
-        <v>3150.490396343242</v>
+        <v>35.004926203005</v>
       </c>
       <c r="S23">
-        <v>0.008884376250529909</v>
+        <v>0.0001139945437304928</v>
       </c>
       <c r="T23">
-        <v>0.007388566994029816</v>
+        <v>9.555481939659166E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H24">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I24">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J24">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>456.870249383212</v>
+        <v>2.029690082532777</v>
       </c>
       <c r="R24">
-        <v>4111.832244448909</v>
+        <v>18.267210742795</v>
       </c>
       <c r="S24">
-        <v>0.007730238818512487</v>
+        <v>3.965846295989644E-05</v>
       </c>
       <c r="T24">
-        <v>0.009643117160930022</v>
+        <v>4.986498223948293E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H25">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I25">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J25">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>298.8762126901717</v>
+        <v>2.925303359818888</v>
       </c>
       <c r="R25">
-        <v>2689.885914211546</v>
+        <v>26.32773023837</v>
       </c>
       <c r="S25">
-        <v>0.005056981723775286</v>
+        <v>5.715800453489406E-05</v>
       </c>
       <c r="T25">
-        <v>0.006308351965305865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.060614</v>
-      </c>
-      <c r="I26">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J26">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>164.5772705</v>
-      </c>
-      <c r="N26">
-        <v>329.154541</v>
-      </c>
-      <c r="O26">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P26">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q26">
-        <v>3.325228891362333</v>
-      </c>
-      <c r="R26">
-        <v>19.951373348174</v>
-      </c>
-      <c r="S26">
-        <v>5.626283062018283E-05</v>
-      </c>
-      <c r="T26">
-        <v>4.679019456049921E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.060614</v>
-      </c>
-      <c r="I27">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J27">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>118.764328</v>
-      </c>
-      <c r="N27">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P27">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q27">
-        <v>2.399593659130666</v>
-      </c>
-      <c r="R27">
-        <v>21.596342932176</v>
-      </c>
-      <c r="S27">
-        <v>4.06010942439578E-05</v>
-      </c>
-      <c r="T27">
-        <v>5.064799650417349E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.060614</v>
-      </c>
-      <c r="I28">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J28">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N28">
-        <v>253.595871</v>
-      </c>
-      <c r="O28">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P28">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q28">
-        <v>1.707940013866</v>
-      </c>
-      <c r="R28">
-        <v>15.371460124794</v>
-      </c>
-      <c r="S28">
-        <v>2.88983233482632E-05</v>
-      </c>
-      <c r="T28">
-        <v>3.604932840294389E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.060614</v>
-      </c>
-      <c r="I29">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J29">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>139.9082645</v>
-      </c>
-      <c r="N29">
-        <v>279.816529</v>
-      </c>
-      <c r="O29">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P29">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q29">
-        <v>2.826799848134333</v>
-      </c>
-      <c r="R29">
-        <v>16.960799088806</v>
-      </c>
-      <c r="S29">
-        <v>4.782941753750399E-05</v>
-      </c>
-      <c r="T29">
-        <v>3.977666476475429E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.060614</v>
-      </c>
-      <c r="I30">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J30">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>121.733284</v>
-      </c>
-      <c r="N30">
-        <v>365.199852</v>
-      </c>
-      <c r="O30">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P30">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q30">
-        <v>2.459580425458666</v>
-      </c>
-      <c r="R30">
-        <v>22.136223829128</v>
-      </c>
-      <c r="S30">
-        <v>4.161606956855329E-05</v>
-      </c>
-      <c r="T30">
-        <v>5.191413150987188E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.060614</v>
-      </c>
-      <c r="I31">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J31">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N31">
-        <v>238.907105</v>
-      </c>
-      <c r="O31">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P31">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q31">
-        <v>1.609012806941111</v>
-      </c>
-      <c r="R31">
-        <v>14.48111526247</v>
-      </c>
-      <c r="S31">
-        <v>2.722447626320962E-05</v>
-      </c>
-      <c r="T31">
-        <v>3.396128119902078E-05</v>
+        <v>7.186821344687383E-05</v>
       </c>
     </row>
   </sheetData>
